--- a/output/VERDE_07455788000170.xlsx
+++ b/output/VERDE_07455788000170.xlsx
@@ -2330,10 +2330,10 @@
         <v>44165</v>
       </c>
       <c r="B177">
-        <v>6.6322573</v>
+        <v>6.6338224</v>
       </c>
       <c r="C177">
-        <v>0.03650266294251714</v>
+        <v>0.03671521216013485</v>
       </c>
     </row>
   </sheetData>

--- a/output/VERDE_07455788000170.xlsx
+++ b/output/VERDE_07455788000170.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>VERDE 90 DISTRIBUIDORES FUNDO DE INVESTIMENTO EM COTAS DE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,1954 +383,1426 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C177"/>
+  <dimension ref="A1:B177"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>38837</v>
       </c>
       <c r="B2">
-        <v>0.02644700000000011</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>38868</v>
       </c>
       <c r="B3">
-        <v>0.04076450000000009</v>
-      </c>
-      <c r="C3">
         <v>0.01394860134035181</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>38898</v>
       </c>
       <c r="B4">
-        <v>0.04567600000000005</v>
-      </c>
-      <c r="C4">
         <v>0.004719127141634694</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>38929</v>
       </c>
       <c r="B5">
-        <v>0.06369730000000007</v>
-      </c>
-      <c r="C5">
         <v>0.01723411458233715</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>38960</v>
       </c>
       <c r="B6">
-        <v>0.07819679999999996</v>
-      </c>
-      <c r="C6">
         <v>0.01363122760582347</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>38990</v>
       </c>
       <c r="B7">
-        <v>0.08456730000000001</v>
-      </c>
-      <c r="C7">
         <v>0.005908476077836733</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>39021</v>
       </c>
       <c r="B8">
-        <v>0.1120424</v>
-      </c>
-      <c r="C8">
         <v>0.02533277556865299</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>39051</v>
       </c>
       <c r="B9">
-        <v>0.1424604</v>
-      </c>
-      <c r="C9">
         <v>0.027353273580216</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>39082</v>
       </c>
       <c r="B10">
-        <v>0.1552287000000001</v>
-      </c>
-      <c r="C10">
         <v>0.01117614229779873</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>39113</v>
       </c>
       <c r="B11">
-        <v>0.1814439000000001</v>
-      </c>
-      <c r="C11">
         <v>0.02269264951606553</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>39141</v>
       </c>
       <c r="B12">
-        <v>0.1814298000000001</v>
-      </c>
-      <c r="C12">
         <v>-1.193454890247025e-05</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>39172</v>
       </c>
       <c r="B13">
-        <v>0.2132803000000001</v>
-      </c>
-      <c r="C13">
         <v>0.02695928272674353</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>39202</v>
       </c>
       <c r="B14">
-        <v>0.2266811</v>
-      </c>
-      <c r="C14">
         <v>0.01104509815250432</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>39233</v>
       </c>
       <c r="B15">
-        <v>0.2713569</v>
-      </c>
-      <c r="C15">
         <v>0.03642006060091751</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>39263</v>
       </c>
       <c r="B16">
-        <v>0.3286815000000001</v>
-      </c>
-      <c r="C16">
         <v>0.04508930576457337</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>39294</v>
       </c>
       <c r="B17">
-        <v>0.376824</v>
-      </c>
-      <c r="C17">
         <v>0.03623328841411588</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>39325</v>
       </c>
       <c r="B18">
-        <v>0.416093</v>
-      </c>
-      <c r="C18">
         <v>0.02852143774367666</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>39355</v>
       </c>
       <c r="B19">
-        <v>0.4194351999999999</v>
-      </c>
-      <c r="C19">
         <v>0.002360155724235424</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>39386</v>
       </c>
       <c r="B20">
-        <v>0.445894</v>
-      </c>
-      <c r="C20">
         <v>0.01864037188876266</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>39416</v>
       </c>
       <c r="B21">
-        <v>0.4761184999999999</v>
-      </c>
-      <c r="C21">
         <v>0.0209036762030963</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>39447</v>
       </c>
       <c r="B22">
-        <v>0.5049186999999999</v>
-      </c>
-      <c r="C22">
         <v>0.01951076421032605</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>39478</v>
       </c>
       <c r="B23">
-        <v>0.5153460000000001</v>
-      </c>
-      <c r="C23">
         <v>0.006928812832214915</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>39507</v>
       </c>
       <c r="B24">
-        <v>0.5816714999999999</v>
-      </c>
-      <c r="C24">
         <v>0.04376921178397519</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>39538</v>
       </c>
       <c r="B25">
-        <v>0.5377445000000001</v>
-      </c>
-      <c r="C25">
         <v>-0.02777251787112545</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>39568</v>
       </c>
       <c r="B26">
-        <v>0.5932953000000001</v>
-      </c>
-      <c r="C26">
         <v>0.03612485689267619</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>39599</v>
       </c>
       <c r="B27">
-        <v>0.6349720000000001</v>
-      </c>
-      <c r="C27">
         <v>0.02615754907455003</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>39629</v>
       </c>
       <c r="B28">
-        <v>0.7058764</v>
-      </c>
-      <c r="C28">
         <v>0.0433673481870025</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>39660</v>
       </c>
       <c r="B29">
-        <v>0.6630393999999999</v>
-      </c>
-      <c r="C29">
         <v>-0.02511143245782643</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>39691</v>
       </c>
       <c r="B30">
-        <v>0.6035808</v>
-      </c>
-      <c r="C30">
         <v>-0.0357529713366983</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>39721</v>
       </c>
       <c r="B31">
-        <v>0.485517</v>
-      </c>
-      <c r="C31">
         <v>-0.07362510202167549</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>39752</v>
       </c>
       <c r="B32">
-        <v>0.3525742999999999</v>
-      </c>
-      <c r="C32">
         <v>-0.08949254703917897</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>39782</v>
       </c>
       <c r="B33">
-        <v>0.382212</v>
-      </c>
-      <c r="C33">
         <v>0.02191206797290191</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>39813</v>
       </c>
       <c r="B34">
-        <v>0.4018667</v>
-      </c>
-      <c r="C34">
         <v>0.01421974342575516</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>39844</v>
       </c>
       <c r="B35">
-        <v>0.4637222000000001</v>
-      </c>
-      <c r="C35">
         <v>0.04412366739291262</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>39872</v>
       </c>
       <c r="B36">
-        <v>0.4773428</v>
-      </c>
-      <c r="C36">
         <v>0.009305454272675373</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>39903</v>
       </c>
       <c r="B37">
-        <v>0.5058693999999999</v>
-      </c>
-      <c r="C37">
         <v>0.01930939792714326</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>39933</v>
       </c>
       <c r="B38">
-        <v>0.6770339999999999</v>
-      </c>
-      <c r="C38">
         <v>0.1136649698838426</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>39964</v>
       </c>
       <c r="B39">
-        <v>0.7561711</v>
-      </c>
-      <c r="C39">
         <v>0.04718872724106959</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>39994</v>
       </c>
       <c r="B40">
-        <v>0.7954561</v>
-      </c>
-      <c r="C40">
         <v>0.02236968823823604</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>40025</v>
       </c>
       <c r="B41">
-        <v>0.8873868</v>
-      </c>
-      <c r="C41">
         <v>0.05120186452901865</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>40056</v>
       </c>
       <c r="B42">
-        <v>0.9582463000000001</v>
-      </c>
-      <c r="C42">
         <v>0.03754370858162193</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>40086</v>
       </c>
       <c r="B43">
-        <v>0.9929827</v>
-      </c>
-      <c r="C43">
         <v>0.01773852451553193</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>40117</v>
       </c>
       <c r="B44">
-        <v>1.0075485</v>
-      </c>
-      <c r="C44">
         <v>0.007308543119817434</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>40147</v>
       </c>
       <c r="B45">
-        <v>1.0561695</v>
-      </c>
-      <c r="C45">
         <v>0.02421909109543319</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>40178</v>
       </c>
       <c r="B46">
-        <v>1.1004872</v>
-      </c>
-      <c r="C46">
         <v>0.02155352464862448</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>40209</v>
       </c>
       <c r="B47">
-        <v>1.1777197</v>
-      </c>
-      <c r="C47">
         <v>0.03676885057904666</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>40237</v>
       </c>
       <c r="B48">
-        <v>1.1488465</v>
-      </c>
-      <c r="C48">
         <v>-0.01325845562218131</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>40268</v>
       </c>
       <c r="B49">
-        <v>1.1633597</v>
-      </c>
-      <c r="C49">
         <v>0.006753949153650574</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>40298</v>
       </c>
       <c r="B50">
-        <v>1.1260777</v>
-      </c>
-      <c r="C50">
         <v>-0.01723338009855679</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>40329</v>
       </c>
       <c r="B51">
-        <v>1.1511733</v>
-      </c>
-      <c r="C51">
         <v>0.01180370783250284</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>40359</v>
       </c>
       <c r="B52">
-        <v>1.1930584</v>
-      </c>
-      <c r="C52">
         <v>0.01947081622852043</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>40390</v>
       </c>
       <c r="B53">
-        <v>1.2237769</v>
-      </c>
-      <c r="C53">
         <v>0.01400715092676053</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>40421</v>
       </c>
       <c r="B54">
-        <v>1.2298947</v>
-      </c>
-      <c r="C54">
         <v>0.002751085326949898</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>40451</v>
       </c>
       <c r="B55">
-        <v>1.2384755</v>
-      </c>
-      <c r="C55">
         <v>0.0038480740817044</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>40482</v>
       </c>
       <c r="B56">
-        <v>1.3018676</v>
-      </c>
-      <c r="C56">
         <v>0.02831931821456179</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>40512</v>
       </c>
       <c r="B57">
-        <v>1.3514815</v>
-      </c>
-      <c r="C57">
         <v>0.02155375921708091</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>40543</v>
       </c>
       <c r="B58">
-        <v>1.3794172</v>
-      </c>
-      <c r="C58">
         <v>0.01188004243282381</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>40574</v>
       </c>
       <c r="B59">
-        <v>1.3898132</v>
-      </c>
-      <c r="C59">
         <v>0.004369137114752286</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>40602</v>
       </c>
       <c r="B60">
-        <v>1.3977233</v>
-      </c>
-      <c r="C60">
         <v>0.003309923972300455</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>40633</v>
       </c>
       <c r="B61">
-        <v>1.4860407</v>
-      </c>
-      <c r="C61">
         <v>0.03683385818538776</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>40663</v>
       </c>
       <c r="B62">
-        <v>1.5276491</v>
-      </c>
-      <c r="C62">
         <v>0.01673681368128843</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>40694</v>
       </c>
       <c r="B63">
-        <v>1.5349896</v>
-      </c>
-      <c r="C63">
         <v>0.002904081899659072</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>40724</v>
       </c>
       <c r="B64">
-        <v>1.5292197</v>
-      </c>
-      <c r="C64">
         <v>-0.002276104012418734</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>40755</v>
       </c>
       <c r="B65">
-        <v>1.499479</v>
-      </c>
-      <c r="C65">
         <v>-0.01175884404189964</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>40786</v>
       </c>
       <c r="B66">
-        <v>1.5592983</v>
-      </c>
-      <c r="C66">
         <v>0.02393270757625898</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>40816</v>
       </c>
       <c r="B67">
-        <v>1.5883002</v>
-      </c>
-      <c r="C67">
         <v>0.01133197329908753</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>40847</v>
       </c>
       <c r="B68">
-        <v>1.6143768</v>
-      </c>
-      <c r="C68">
         <v>0.01007479735155914</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>40877</v>
       </c>
       <c r="B69">
-        <v>1.6061477</v>
-      </c>
-      <c r="C69">
         <v>-0.003147633501031644</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>40908</v>
       </c>
       <c r="B70">
-        <v>1.6611931</v>
-      </c>
-      <c r="C70">
         <v>0.0211213662218761</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>40939</v>
       </c>
       <c r="B71">
-        <v>1.7349736</v>
-      </c>
-      <c r="C71">
         <v>0.0277245946564344</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>40968</v>
       </c>
       <c r="B72">
-        <v>1.8058355</v>
-      </c>
-      <c r="C72">
         <v>0.02590953711582444</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>40999</v>
       </c>
       <c r="B73">
-        <v>1.8439139</v>
-      </c>
-      <c r="C73">
         <v>0.01357114485150679</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>41029</v>
       </c>
       <c r="B74">
-        <v>1.9153505</v>
-      </c>
-      <c r="C74">
         <v>0.02511911489303542</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>41060</v>
       </c>
       <c r="B75">
-        <v>1.888917</v>
-      </c>
-      <c r="C75">
         <v>-0.009067005836862485</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>41090</v>
       </c>
       <c r="B76">
-        <v>1.9157239</v>
-      </c>
-      <c r="C76">
         <v>0.009279221244500979</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>41121</v>
       </c>
       <c r="B77">
-        <v>1.9824321</v>
-      </c>
-      <c r="C77">
         <v>0.02287877806262784</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>41152</v>
       </c>
       <c r="B78">
-        <v>1.9941471</v>
-      </c>
-      <c r="C78">
         <v>0.003928002250244145</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>41182</v>
       </c>
       <c r="B79">
-        <v>2.0478874</v>
-      </c>
-      <c r="C79">
         <v>0.0179484501613163</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>41213</v>
       </c>
       <c r="B80">
-        <v>2.0801201</v>
-      </c>
-      <c r="C80">
         <v>0.01057542348841367</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>41243</v>
       </c>
       <c r="B81">
-        <v>2.1464882</v>
-      </c>
-      <c r="C81">
         <v>0.02154724421297738</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>41274</v>
       </c>
       <c r="B82">
-        <v>2.1698004</v>
-      </c>
-      <c r="C82">
         <v>0.007408958342828065</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>41305</v>
       </c>
       <c r="B83">
-        <v>2.2129137</v>
-      </c>
-      <c r="C83">
         <v>0.01360126650245852</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>41333</v>
       </c>
       <c r="B84">
-        <v>2.2430034</v>
-      </c>
-      <c r="C84">
         <v>0.009365237541238747</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>41364</v>
       </c>
       <c r="B85">
-        <v>2.2957405</v>
-      </c>
-      <c r="C85">
         <v>0.01626180842116898</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>41394</v>
       </c>
       <c r="B86">
-        <v>2.3063457</v>
-      </c>
-      <c r="C86">
         <v>0.003217850434523051</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>41425</v>
       </c>
       <c r="B87">
-        <v>2.3683177</v>
-      </c>
-      <c r="C87">
         <v>0.01874335161020824</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>41455</v>
       </c>
       <c r="B88">
-        <v>2.3499573</v>
-      </c>
-      <c r="C88">
         <v>-0.00545091099928019</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>41486</v>
       </c>
       <c r="B89">
-        <v>2.4110847</v>
-      </c>
-      <c r="C89">
         <v>0.01824721765856552</v>
       </c>
     </row>
-    <row r="90" spans="1:3">
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>41517</v>
       </c>
       <c r="B90">
-        <v>2.5040654</v>
-      </c>
-      <c r="C90">
         <v>0.02725839672055042</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>41547</v>
       </c>
       <c r="B91">
-        <v>2.4880682</v>
-      </c>
-      <c r="C91">
         <v>-0.004565325749913307</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>41578</v>
       </c>
       <c r="B92">
-        <v>2.5374438</v>
-      </c>
-      <c r="C92">
         <v>0.01415557184346339</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>41608</v>
       </c>
       <c r="B93">
-        <v>2.6673394</v>
-      </c>
-      <c r="C93">
         <v>0.03672018761117846</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>41639</v>
       </c>
       <c r="B94">
-        <v>2.7279988</v>
-      </c>
-      <c r="C94">
         <v>0.0165404380080012</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>41670</v>
       </c>
       <c r="B95">
-        <v>2.7240536</v>
-      </c>
-      <c r="C95">
         <v>-0.00105826214321747</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>41698</v>
       </c>
       <c r="B96">
-        <v>2.6758019</v>
-      </c>
-      <c r="C96">
         <v>-0.01295676839882209</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>41729</v>
       </c>
       <c r="B97">
-        <v>2.6505774</v>
-      </c>
-      <c r="C97">
         <v>-0.006862312139291338</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>41759</v>
       </c>
       <c r="B98">
-        <v>2.6145492</v>
-      </c>
-      <c r="C98">
         <v>-0.009869178503104759</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>41790</v>
       </c>
       <c r="B99">
-        <v>2.6457235</v>
-      </c>
-      <c r="C99">
         <v>0.008624671646467075</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>41820</v>
       </c>
       <c r="B100">
-        <v>2.642175</v>
-      </c>
-      <c r="C100">
         <v>-0.0009733321794700434</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>41851</v>
       </c>
       <c r="B101">
-        <v>2.6448754</v>
-      </c>
-      <c r="C101">
         <v>0.0007414251099961966</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>41882</v>
       </c>
       <c r="B102">
-        <v>2.5789913</v>
-      </c>
-      <c r="C102">
         <v>-0.01807581680295567</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>41912</v>
       </c>
       <c r="B103">
-        <v>2.8166429</v>
-      </c>
-      <c r="C103">
         <v>0.06640183785861664</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>41943</v>
       </c>
       <c r="B104">
-        <v>2.7905468</v>
-      </c>
-      <c r="C104">
         <v>-0.0068374486908378</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>41973</v>
       </c>
       <c r="B105">
-        <v>2.9201053</v>
-      </c>
-      <c r="C105">
         <v>0.03417936958330126</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>42004</v>
       </c>
       <c r="B106">
-        <v>3.0351672</v>
-      </c>
-      <c r="C106">
         <v>0.02935173705665517</v>
       </c>
     </row>
-    <row r="107" spans="1:3">
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>42035</v>
       </c>
       <c r="B107">
-        <v>3.1245836</v>
-      </c>
-      <c r="C107">
         <v>0.02215928004172918</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>42063</v>
       </c>
       <c r="B108">
-        <v>3.3266511</v>
-      </c>
-      <c r="C108">
         <v>0.0489910060254326</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>42094</v>
       </c>
       <c r="B109">
-        <v>3.5450134</v>
-      </c>
-      <c r="C109">
         <v>0.05046912611003007</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>42124</v>
       </c>
       <c r="B110">
-        <v>3.4666636</v>
-      </c>
-      <c r="C110">
         <v>-0.01723862904342588</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>42155</v>
       </c>
       <c r="B111">
-        <v>3.6374936</v>
-      </c>
-      <c r="C111">
         <v>0.03824554864619745</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>42185</v>
       </c>
       <c r="B112">
-        <v>3.628867</v>
-      </c>
-      <c r="C112">
         <v>-0.001860185855566576</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>42216</v>
       </c>
       <c r="B113">
-        <v>3.8772954</v>
-      </c>
-      <c r="C113">
         <v>0.05366937524884619</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>42247</v>
       </c>
       <c r="B114">
-        <v>3.8606676</v>
-      </c>
-      <c r="C114">
         <v>-0.003409225531018745</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>42277</v>
       </c>
       <c r="B115">
-        <v>3.9259483</v>
-      </c>
-      <c r="C115">
         <v>0.01343039791488709</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>42308</v>
       </c>
       <c r="B116">
-        <v>4.0020571</v>
-      </c>
-      <c r="C116">
         <v>0.01545058846841729</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>42338</v>
       </c>
       <c r="B117">
-        <v>4.1243451</v>
-      </c>
-      <c r="C117">
         <v>0.02444754179235575</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>42369</v>
       </c>
       <c r="B118">
-        <v>4.1755896</v>
-      </c>
-      <c r="C118">
         <v>0.01000020470908569</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>42400</v>
       </c>
       <c r="B119">
-        <v>4.2302428</v>
-      </c>
-      <c r="C119">
         <v>0.01055980172771043</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>42429</v>
       </c>
       <c r="B120">
-        <v>4.267116</v>
-      </c>
-      <c r="C120">
         <v>0.007049997755362192</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>42460</v>
       </c>
       <c r="B121">
-        <v>4.1344711</v>
-      </c>
-      <c r="C121">
         <v>-0.02518359193152375</v>
       </c>
     </row>
-    <row r="122" spans="1:3">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>42490</v>
       </c>
       <c r="B122">
-        <v>4.2226684</v>
-      </c>
-      <c r="C122">
         <v>0.01717748494095139</v>
       </c>
     </row>
-    <row r="123" spans="1:3">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>42521</v>
       </c>
       <c r="B123">
-        <v>4.299839</v>
-      </c>
-      <c r="C123">
         <v>0.01477608649249129</v>
       </c>
     </row>
-    <row r="124" spans="1:3">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>42551</v>
       </c>
       <c r="B124">
-        <v>4.3908692</v>
-      </c>
-      <c r="C124">
         <v>0.01717603119641931</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>42582</v>
       </c>
       <c r="B125">
-        <v>4.4867985</v>
-      </c>
-      <c r="C125">
         <v>0.0177947741711113</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>42613</v>
       </c>
       <c r="B126">
-        <v>4.5739662</v>
-      </c>
-      <c r="C126">
         <v>0.01588680539298104</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>42643</v>
       </c>
       <c r="B127">
-        <v>4.6384808</v>
-      </c>
-      <c r="C127">
         <v>0.0115742718353764</v>
       </c>
     </row>
-    <row r="128" spans="1:3">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>42674</v>
       </c>
       <c r="B128">
-        <v>4.6975356</v>
-      </c>
-      <c r="C128">
         <v>0.01047353038783072</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>42704</v>
       </c>
       <c r="B129">
-        <v>4.7538853</v>
-      </c>
-      <c r="C129">
         <v>0.009890188312294157</v>
       </c>
     </row>
-    <row r="130" spans="1:3">
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>42735</v>
       </c>
       <c r="B130">
-        <v>4.9341714</v>
-      </c>
-      <c r="C130">
         <v>0.03133293254907255</v>
       </c>
     </row>
-    <row r="131" spans="1:3">
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>42766</v>
       </c>
       <c r="B131">
-        <v>4.9379363</v>
-      </c>
-      <c r="C131">
         <v>0.0006344440944188179</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>42794</v>
       </c>
       <c r="B132">
-        <v>5.0161047</v>
-      </c>
-      <c r="C132">
         <v>0.01316423687468649</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>42825</v>
       </c>
       <c r="B133">
-        <v>5.0801613</v>
-      </c>
-      <c r="C133">
         <v>0.0106475208119301</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>42855</v>
       </c>
       <c r="B134">
-        <v>5.1043303</v>
-      </c>
-      <c r="C134">
         <v>0.003975059016937621</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>42886</v>
       </c>
       <c r="B135">
-        <v>5.0475857</v>
-      </c>
-      <c r="C135">
         <v>-0.009295794495261855</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>42916</v>
       </c>
       <c r="B136">
-        <v>5.0721423</v>
-      </c>
-      <c r="C136">
         <v>0.00406056254812559</v>
       </c>
     </row>
-    <row r="137" spans="1:3">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>42947</v>
       </c>
       <c r="B137">
-        <v>5.184455</v>
-      </c>
-      <c r="C137">
         <v>0.01849638800460918</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>42978</v>
       </c>
       <c r="B138">
-        <v>5.2043474</v>
-      </c>
-      <c r="C138">
         <v>0.003216516249208601</v>
       </c>
     </row>
-    <row r="139" spans="1:3">
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>43008</v>
       </c>
       <c r="B139">
-        <v>5.2337162</v>
-      </c>
-      <c r="C139">
         <v>0.004733584067197816</v>
       </c>
     </row>
-    <row r="140" spans="1:3">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>43039</v>
       </c>
       <c r="B140">
-        <v>5.2072142</v>
-      </c>
-      <c r="C140">
         <v>-0.004251396622772075</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>43069</v>
       </c>
       <c r="B141">
-        <v>5.1778134</v>
-      </c>
-      <c r="C141">
         <v>-0.00473655315455368</v>
       </c>
     </row>
-    <row r="142" spans="1:3">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>43100</v>
       </c>
       <c r="B142">
-        <v>5.2135963</v>
-      </c>
-      <c r="C142">
         <v>0.005792162644472354</v>
       </c>
     </row>
-    <row r="143" spans="1:3">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>43131</v>
       </c>
       <c r="B143">
-        <v>5.4002839</v>
-      </c>
-      <c r="C143">
         <v>0.03004501595959819</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>43159</v>
       </c>
       <c r="B144">
-        <v>5.4055587</v>
-      </c>
-      <c r="C144">
         <v>0.0008241509411794912</v>
       </c>
     </row>
-    <row r="145" spans="1:3">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>43190</v>
       </c>
       <c r="B145">
-        <v>5.4399195</v>
-      </c>
-      <c r="C145">
         <v>0.005364215927019744</v>
       </c>
     </row>
-    <row r="146" spans="1:3">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>43220</v>
       </c>
       <c r="B146">
-        <v>5.4257247</v>
-      </c>
-      <c r="C146">
         <v>-0.002204189043046312</v>
       </c>
     </row>
-    <row r="147" spans="1:3">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>43251</v>
       </c>
       <c r="B147">
-        <v>5.3071875</v>
-      </c>
-      <c r="C147">
         <v>-0.01844728891046321</v>
       </c>
     </row>
-    <row r="148" spans="1:3">
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>43281</v>
       </c>
       <c r="B148">
-        <v>5.3227077</v>
-      </c>
-      <c r="C148">
         <v>0.002460716444532496</v>
       </c>
     </row>
-    <row r="149" spans="1:3">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>43312</v>
       </c>
       <c r="B149">
-        <v>5.3895114</v>
-      </c>
-      <c r="C149">
         <v>0.01056567900489847</v>
       </c>
     </row>
-    <row r="150" spans="1:3">
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>43343</v>
       </c>
       <c r="B150">
-        <v>5.4308862</v>
-      </c>
-      <c r="C150">
         <v>0.006475424709313504</v>
       </c>
     </row>
-    <row r="151" spans="1:3">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>43373</v>
       </c>
       <c r="B151">
-        <v>5.4090034</v>
-      </c>
-      <c r="C151">
         <v>-0.003402765858304235</v>
       </c>
     </row>
-    <row r="152" spans="1:3">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>43404</v>
       </c>
       <c r="B152">
-        <v>5.6477359</v>
-      </c>
-      <c r="C152">
         <v>0.0372495511548645</v>
       </c>
     </row>
-    <row r="153" spans="1:3">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>43434</v>
       </c>
       <c r="B153">
-        <v>5.6818498</v>
-      </c>
-      <c r="C153">
         <v>0.005131656929993289</v>
       </c>
     </row>
-    <row r="154" spans="1:3">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>43465</v>
       </c>
       <c r="B154">
-        <v>5.6706222</v>
-      </c>
-      <c r="C154">
         <v>-0.001680313137239264</v>
       </c>
     </row>
-    <row r="155" spans="1:3">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>43496</v>
       </c>
       <c r="B155">
-        <v>5.9217674</v>
-      </c>
-      <c r="C155">
         <v>0.03764944145690041</v>
       </c>
     </row>
-    <row r="156" spans="1:3">
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>43524</v>
       </c>
       <c r="B156">
-        <v>5.9223398</v>
-      </c>
-      <c r="C156">
         <v>8.269564215623859e-05</v>
       </c>
     </row>
-    <row r="157" spans="1:3">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>43555</v>
       </c>
       <c r="B157">
-        <v>5.9484951</v>
-      </c>
-      <c r="C157">
         <v>0.003778390075563687</v>
       </c>
     </row>
-    <row r="158" spans="1:3">
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>43585</v>
       </c>
       <c r="B158">
-        <v>6.006187</v>
-      </c>
-      <c r="C158">
         <v>0.008302790628721857</v>
       </c>
     </row>
-    <row r="159" spans="1:3">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>43616</v>
       </c>
       <c r="B159">
-        <v>6.1058492</v>
-      </c>
-      <c r="C159">
         <v>0.01422488437719416</v>
       </c>
     </row>
-    <row r="160" spans="1:3">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>43646</v>
       </c>
       <c r="B160">
-        <v>6.2126738</v>
-      </c>
-      <c r="C160">
         <v>0.01503333338399582</v>
       </c>
     </row>
-    <row r="161" spans="1:3">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>43677</v>
       </c>
       <c r="B161">
-        <v>6.2406837</v>
-      </c>
-      <c r="C161">
         <v>0.003883428084602958</v>
       </c>
     </row>
-    <row r="162" spans="1:3">
+    <row r="162" spans="1:2">
       <c r="A162" s="2">
         <v>43708</v>
       </c>
       <c r="B162">
-        <v>6.2501413</v>
-      </c>
-      <c r="C162">
         <v>0.001306174995601594</v>
       </c>
     </row>
-    <row r="163" spans="1:3">
+    <row r="163" spans="1:2">
       <c r="A163" s="2">
         <v>43738</v>
       </c>
       <c r="B163">
-        <v>6.3428757</v>
-      </c>
-      <c r="C163">
         <v>0.01279070243775804</v>
       </c>
     </row>
-    <row r="164" spans="1:3">
+    <row r="164" spans="1:2">
       <c r="A164" s="2">
         <v>43769</v>
       </c>
       <c r="B164">
-        <v>6.4056192</v>
-      </c>
-      <c r="C164">
         <v>0.008544813035579635</v>
       </c>
     </row>
-    <row r="165" spans="1:3">
+    <row r="165" spans="1:2">
       <c r="A165" s="2">
         <v>43799</v>
       </c>
       <c r="B165">
-        <v>6.4035063</v>
-      </c>
-      <c r="C165">
         <v>-0.0002853103762072706</v>
       </c>
     </row>
-    <row r="166" spans="1:3">
+    <row r="166" spans="1:2">
       <c r="A166" s="2">
         <v>43830</v>
       </c>
       <c r="B166">
-        <v>6.5431318</v>
-      </c>
-      <c r="C166">
         <v>0.01885937478029831</v>
       </c>
     </row>
-    <row r="167" spans="1:3">
+    <row r="167" spans="1:2">
       <c r="A167" s="2">
         <v>43861</v>
       </c>
       <c r="B167">
-        <v>6.5255631</v>
-      </c>
-      <c r="C167">
         <v>-0.002329098902925208</v>
       </c>
     </row>
-    <row r="168" spans="1:3">
+    <row r="168" spans="1:2">
       <c r="A168" s="2">
         <v>43890</v>
       </c>
       <c r="B168">
-        <v>6.3078588</v>
-      </c>
-      <c r="C168">
         <v>-0.0289286392402982</v>
       </c>
     </row>
-    <row r="169" spans="1:3">
+    <row r="169" spans="1:2">
       <c r="A169" s="2">
         <v>43921</v>
       </c>
       <c r="B169">
-        <v>5.468278</v>
-      </c>
-      <c r="C169">
         <v>-0.1148873867130548</v>
       </c>
     </row>
-    <row r="170" spans="1:3">
+    <row r="170" spans="1:2">
       <c r="A170" s="2">
         <v>43951</v>
       </c>
       <c r="B170">
-        <v>6.0215795</v>
-      </c>
-      <c r="C170">
         <v>0.08554077298471086</v>
       </c>
     </row>
-    <row r="171" spans="1:3">
+    <row r="171" spans="1:2">
       <c r="A171" s="2">
         <v>43982</v>
       </c>
       <c r="B171">
-        <v>6.195438</v>
-      </c>
-      <c r="C171">
         <v>0.02476059695685295</v>
       </c>
     </row>
-    <row r="172" spans="1:3">
+    <row r="172" spans="1:2">
       <c r="A172" s="2">
         <v>44012</v>
       </c>
       <c r="B172">
-        <v>6.2577202</v>
-      </c>
-      <c r="C172">
         <v>0.008655789960249738</v>
       </c>
     </row>
-    <row r="173" spans="1:3">
+    <row r="173" spans="1:2">
       <c r="A173" s="2">
         <v>44043</v>
       </c>
       <c r="B173">
-        <v>6.4028165</v>
-      </c>
-      <c r="C173">
         <v>0.01999199418021114</v>
       </c>
     </row>
-    <row r="174" spans="1:3">
+    <row r="174" spans="1:2">
       <c r="A174" s="2">
         <v>44074</v>
       </c>
       <c r="B174">
-        <v>6.4980022</v>
-      </c>
-      <c r="C174">
         <v>0.01285803855870271</v>
       </c>
     </row>
-    <row r="175" spans="1:3">
+    <row r="175" spans="1:2">
       <c r="A175" s="2">
         <v>44104</v>
       </c>
       <c r="B175">
-        <v>6.4032667</v>
-      </c>
-      <c r="C175">
         <v>-0.0126347655646194</v>
       </c>
     </row>
-    <row r="176" spans="1:3">
+    <row r="176" spans="1:2">
       <c r="A176" s="2">
         <v>44135</v>
       </c>
       <c r="B176">
-        <v>6.363471</v>
-      </c>
-      <c r="C176">
         <v>-0.005375424338015522</v>
       </c>
     </row>
-    <row r="177" spans="1:3">
+    <row r="177" spans="1:2">
       <c r="A177" s="2">
         <v>44165</v>
       </c>
       <c r="B177">
-        <v>6.6338224</v>
-      </c>
-      <c r="C177">
-        <v>0.03671521216013485</v>
+        <v>0.0299084765866533</v>
       </c>
     </row>
   </sheetData>
